--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 06.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 06.12.20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7680" windowWidth="11355" windowHeight="6150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7680" windowWidth="11355" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Sales" sheetId="34" r:id="rId1"/>
@@ -1350,25 +1350,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,148 +1522,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1910,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX65538"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1962,426 +1950,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="30.75">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="144"/>
+      <c r="AO1" s="144"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
+      <c r="AR1" s="144"/>
+      <c r="AS1" s="144"/>
+      <c r="AT1" s="144"/>
     </row>
     <row r="2" spans="1:50" ht="21" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="145"/>
+      <c r="AR2" s="145"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
     </row>
     <row r="3" spans="1:50" ht="18.75">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="148"/>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="148"/>
+      <c r="AT3" s="148"/>
     </row>
     <row r="4" spans="1:50" ht="15">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122">
-        <v>0</v>
-      </c>
-      <c r="F4" s="122">
-        <v>0</v>
-      </c>
-      <c r="G4" s="122">
-        <v>0</v>
-      </c>
-      <c r="H4" s="122">
-        <v>0</v>
-      </c>
-      <c r="I4" s="122">
-        <v>0</v>
-      </c>
-      <c r="J4" s="122">
-        <v>0</v>
-      </c>
-      <c r="K4" s="123">
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0</v>
+      </c>
+      <c r="G4" s="101">
+        <v>0</v>
+      </c>
+      <c r="H4" s="101">
+        <v>0</v>
+      </c>
+      <c r="I4" s="101">
+        <v>0</v>
+      </c>
+      <c r="J4" s="101">
+        <v>0</v>
+      </c>
+      <c r="K4" s="102">
         <v>4220</v>
       </c>
-      <c r="L4" s="123">
+      <c r="L4" s="102">
         <v>300</v>
       </c>
-      <c r="M4" s="120">
+      <c r="M4" s="138">
         <v>3440</v>
       </c>
-      <c r="N4" s="120"/>
-      <c r="O4" s="123">
+      <c r="N4" s="138"/>
+      <c r="O4" s="102">
         <v>1910</v>
       </c>
-      <c r="P4" s="123">
+      <c r="P4" s="102">
         <v>11130</v>
       </c>
-      <c r="Q4" s="122">
-        <v>0</v>
-      </c>
-      <c r="R4" s="122">
-        <v>0</v>
-      </c>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
+      <c r="Q4" s="101">
+        <v>0</v>
+      </c>
+      <c r="R4" s="101">
+        <v>0</v>
+      </c>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="139"/>
+      <c r="AJ4" s="139"/>
+      <c r="AK4" s="139"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="139"/>
+      <c r="AN4" s="139"/>
+      <c r="AO4" s="139"/>
+      <c r="AP4" s="139"/>
+      <c r="AQ4" s="139"/>
+      <c r="AR4" s="139"/>
+      <c r="AS4" s="139"/>
+      <c r="AT4" s="139"/>
     </row>
     <row r="5" spans="1:50" ht="15">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123">
-        <v>0</v>
-      </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123">
-        <v>0</v>
-      </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123">
-        <v>0</v>
-      </c>
-      <c r="P5" s="123">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="121"/>
-      <c r="AM5" s="121"/>
-      <c r="AN5" s="121"/>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102">
+        <v>0</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102">
+        <v>0</v>
+      </c>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102">
+        <v>0</v>
+      </c>
+      <c r="P5" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
     </row>
     <row r="6" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="127" t="s">
+      <c r="C6" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="131" t="s">
+      <c r="M6" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="128" t="s">
+      <c r="N6" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="131" t="s">
+      <c r="O6" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="132" t="s">
+      <c r="P6" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="126" t="s">
+      <c r="Q6" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="127" t="s">
+      <c r="R6" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="133" t="s">
+      <c r="S6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="133" t="s">
+      <c r="T6" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="133" t="s">
+      <c r="U6" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="134" t="s">
+      <c r="V6" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="135" t="s">
+      <c r="W6" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="135" t="s">
+      <c r="X6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="135" t="s">
+      <c r="Y6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="135" t="s">
+      <c r="Z6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="135" t="s">
+      <c r="AA6" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="135" t="s">
+      <c r="AB6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="136" t="s">
+      <c r="AC6" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="127" t="s">
+      <c r="AD6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="137" t="s">
+      <c r="AE6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="138" t="s">
+      <c r="AF6" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AG6" s="137" t="s">
+      <c r="AG6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="138" t="s">
+      <c r="AH6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="AI6" s="138" t="s">
+      <c r="AI6" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="AJ6" s="133" t="s">
+      <c r="AJ6" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="133" t="s">
+      <c r="AK6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="AL6" s="133" t="s">
+      <c r="AL6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="AM6" s="133" t="s">
+      <c r="AM6" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="AN6" s="133" t="s">
+      <c r="AN6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="133" t="s">
+      <c r="AO6" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="AP6" s="134" t="s">
+      <c r="AP6" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="AQ6" s="139" t="s">
+      <c r="AQ6" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="AR6" s="140" t="s">
+      <c r="AR6" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AS6" s="141" t="s">
+      <c r="AS6" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="AT6" s="142" t="s">
+      <c r="AT6" s="121" t="s">
         <v>20</v>
       </c>
       <c r="AU6" s="25"/>
@@ -2463,7 +2451,7 @@
       <c r="AN7" s="17">
         <v>0</v>
       </c>
-      <c r="AO7" s="143">
+      <c r="AO7" s="122">
         <f>SUM(D7:P7)*2.75%</f>
         <v>824.3125</v>
       </c>
@@ -2562,7 +2550,7 @@
       <c r="AN8" s="17">
         <v>0</v>
       </c>
-      <c r="AO8" s="143">
+      <c r="AO8" s="122">
         <f t="shared" ref="AO8:AO18" si="9">SUM(D8:P8)*2.75%</f>
         <v>433.53750000000002</v>
       </c>
@@ -2657,7 +2645,7 @@
       <c r="AN9" s="17">
         <v>0</v>
       </c>
-      <c r="AO9" s="143">
+      <c r="AO9" s="122">
         <f t="shared" si="9"/>
         <v>316.63499999999999</v>
       </c>
@@ -2752,7 +2740,7 @@
       <c r="AN10" s="17">
         <v>0</v>
       </c>
-      <c r="AO10" s="143">
+      <c r="AO10" s="122">
         <f t="shared" si="9"/>
         <v>310.97000000000003</v>
       </c>
@@ -2849,7 +2837,7 @@
       <c r="AN11" s="17">
         <v>0</v>
       </c>
-      <c r="AO11" s="143">
+      <c r="AO11" s="122">
         <f t="shared" si="9"/>
         <v>593.83500000000004</v>
       </c>
@@ -2950,7 +2938,7 @@
       <c r="AN12" s="17">
         <v>0</v>
       </c>
-      <c r="AO12" s="143">
+      <c r="AO12" s="122">
         <f t="shared" si="9"/>
         <v>428.72500000000002</v>
       </c>
@@ -2984,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="46">
-        <v>11987</v>
+        <v>13015</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="46"/>
@@ -3014,19 +3002,19 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="56">
         <f t="shared" si="6"/>
-        <v>12987</v>
+        <v>14015</v>
       </c>
       <c r="AD13" s="7">
         <f t="shared" si="0"/>
-        <v>11987</v>
+        <v>13015</v>
       </c>
       <c r="AE13" s="19">
         <f t="shared" si="1"/>
-        <v>329.64249999999998</v>
+        <v>357.91250000000002</v>
       </c>
       <c r="AF13" s="19">
         <f t="shared" si="2"/>
-        <v>113.87649999999999</v>
+        <v>123.6425</v>
       </c>
       <c r="AG13" s="9">
         <f t="shared" si="7"/>
@@ -3047,9 +3035,9 @@
       <c r="AN13" s="17">
         <v>0</v>
       </c>
-      <c r="AO13" s="143">
+      <c r="AO13" s="122">
         <f t="shared" si="9"/>
-        <v>332.39249999999998</v>
+        <v>360.66250000000002</v>
       </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="60">
@@ -3057,15 +3045,15 @@
       </c>
       <c r="AR13" s="11">
         <f t="shared" si="11"/>
-        <v>12510.8575</v>
+        <v>13510.5875</v>
       </c>
       <c r="AS13" s="53">
         <f t="shared" si="4"/>
-        <v>123.37649999999999</v>
+        <v>133.14249999999998</v>
       </c>
       <c r="AT13" s="53">
         <f t="shared" si="5"/>
-        <v>4.376499999999993</v>
+        <v>14.142499999999984</v>
       </c>
       <c r="AU13" s="6"/>
       <c r="AV13" s="26"/>
@@ -3142,7 +3130,7 @@
       <c r="AN14" s="17">
         <v>0</v>
       </c>
-      <c r="AO14" s="143">
+      <c r="AO14" s="122">
         <f t="shared" si="9"/>
         <v>466.51</v>
       </c>
@@ -3241,7 +3229,7 @@
       <c r="AN15" s="17">
         <v>0</v>
       </c>
-      <c r="AO15" s="143">
+      <c r="AO15" s="122">
         <f t="shared" si="9"/>
         <v>616.05499999999995</v>
       </c>
@@ -3338,7 +3326,7 @@
       <c r="AN16" s="17">
         <v>0</v>
       </c>
-      <c r="AO16" s="143">
+      <c r="AO16" s="122">
         <f t="shared" si="9"/>
         <v>344.90500000000003</v>
       </c>
@@ -3435,7 +3423,7 @@
       <c r="AN17" s="17">
         <v>0</v>
       </c>
-      <c r="AO17" s="143">
+      <c r="AO17" s="122">
         <f t="shared" si="9"/>
         <v>431.77749999999997</v>
       </c>
@@ -3530,7 +3518,7 @@
       <c r="AN18" s="17">
         <v>0</v>
       </c>
-      <c r="AO18" s="143">
+      <c r="AO18" s="122">
         <f t="shared" si="9"/>
         <v>166.8425</v>
       </c>
@@ -3619,7 +3607,7 @@
       <c r="AN19" s="17">
         <v>0</v>
       </c>
-      <c r="AO19" s="143"/>
+      <c r="AO19" s="122"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="60"/>
       <c r="AR19" s="21">
@@ -3703,7 +3691,7 @@
       <c r="AN20" s="17">
         <v>0</v>
       </c>
-      <c r="AO20" s="143"/>
+      <c r="AO20" s="122"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="60"/>
       <c r="AR20" s="21">
@@ -3787,7 +3775,7 @@
       <c r="AN21" s="17">
         <v>0</v>
       </c>
-      <c r="AO21" s="143"/>
+      <c r="AO21" s="122"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="11">
@@ -3871,7 +3859,7 @@
       <c r="AN22" s="17">
         <v>0</v>
       </c>
-      <c r="AO22" s="143"/>
+      <c r="AO22" s="122"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="60"/>
       <c r="AR22" s="11">
@@ -3955,7 +3943,7 @@
       <c r="AN23" s="17">
         <v>0</v>
       </c>
-      <c r="AO23" s="143"/>
+      <c r="AO23" s="122"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="11">
@@ -4039,7 +4027,7 @@
       <c r="AN24" s="17">
         <v>0</v>
       </c>
-      <c r="AO24" s="143"/>
+      <c r="AO24" s="122"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="60"/>
       <c r="AR24" s="11">
@@ -4123,7 +4111,7 @@
       <c r="AN25" s="17">
         <v>0</v>
       </c>
-      <c r="AO25" s="143"/>
+      <c r="AO25" s="122"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="11">
@@ -4207,7 +4195,7 @@
       <c r="AN26" s="17">
         <v>0</v>
       </c>
-      <c r="AO26" s="143"/>
+      <c r="AO26" s="122"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="60"/>
       <c r="AR26" s="11">
@@ -4291,7 +4279,7 @@
       <c r="AN27" s="17">
         <v>0</v>
       </c>
-      <c r="AO27" s="143"/>
+      <c r="AO27" s="122"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="11">
@@ -4375,7 +4363,7 @@
       <c r="AN28" s="31">
         <v>0</v>
       </c>
-      <c r="AO28" s="144"/>
+      <c r="AO28" s="123"/>
       <c r="AP28" s="61"/>
       <c r="AQ28" s="62"/>
       <c r="AR28" s="32">
@@ -4394,191 +4382,191 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="1:48" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="145">
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="124">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
-        <v>190459</v>
-      </c>
-      <c r="E29" s="145">
+        <v>191487</v>
+      </c>
+      <c r="E29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F29" s="145">
+      <c r="F29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G29" s="145">
+      <c r="G29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H29" s="145">
+      <c r="H29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="145">
+      <c r="I29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J29" s="145">
+      <c r="J29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K29" s="145">
+      <c r="K29" s="124">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="L29" s="145">
+      <c r="L29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M29" s="145">
+      <c r="M29" s="124">
         <f t="shared" si="14"/>
         <v>830</v>
       </c>
-      <c r="N29" s="145">
+      <c r="N29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O29" s="145">
+      <c r="O29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P29" s="145">
+      <c r="P29" s="124">
         <f t="shared" si="14"/>
         <v>190</v>
       </c>
-      <c r="Q29" s="145">
+      <c r="Q29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R29" s="145">
+      <c r="R29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S29" s="145">
+      <c r="S29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T29" s="145">
+      <c r="T29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U29" s="145">
+      <c r="U29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V29" s="145">
+      <c r="V29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W29" s="145">
+      <c r="W29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X29" s="145">
+      <c r="X29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="145">
+      <c r="Y29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="145">
+      <c r="Z29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="145">
+      <c r="AA29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="145">
+      <c r="AB29" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="146">
+      <c r="AC29" s="125">
         <f t="shared" si="14"/>
-        <v>201069</v>
-      </c>
-      <c r="AD29" s="146">
+        <v>202097</v>
+      </c>
+      <c r="AD29" s="125">
         <f t="shared" si="14"/>
-        <v>190459</v>
-      </c>
-      <c r="AE29" s="146">
+        <v>191487</v>
+      </c>
+      <c r="AE29" s="125">
         <f t="shared" si="14"/>
-        <v>5237.6225000000004</v>
-      </c>
-      <c r="AF29" s="146">
+        <v>5265.8924999999999</v>
+      </c>
+      <c r="AF29" s="125">
         <f t="shared" si="14"/>
-        <v>1809.3605</v>
-      </c>
-      <c r="AG29" s="146">
+        <v>1819.1265000000001</v>
+      </c>
+      <c r="AG29" s="125">
         <f t="shared" si="14"/>
         <v>292.05500000000001</v>
       </c>
-      <c r="AH29" s="146">
+      <c r="AH29" s="125">
         <f t="shared" si="14"/>
         <v>100.795</v>
       </c>
-      <c r="AI29" s="146">
+      <c r="AI29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="146">
+      <c r="AJ29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="146">
+      <c r="AK29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="146">
+      <c r="AL29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="146">
+      <c r="AM29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="146">
+      <c r="AN29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="147">
+      <c r="AO29" s="126">
         <f>SUM(AO7:AO28)</f>
-        <v>5266.4974999999995</v>
-      </c>
-      <c r="AP29" s="146">
+        <v>5294.7674999999999</v>
+      </c>
+      <c r="AP29" s="125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="148">
+      <c r="AQ29" s="127">
         <f t="shared" si="14"/>
         <v>1770</v>
       </c>
-      <c r="AR29" s="149">
+      <c r="AR29" s="128">
         <f t="shared" si="14"/>
-        <v>193769.32250000001</v>
-      </c>
-      <c r="AS29" s="149">
+        <v>194769.05250000002</v>
+      </c>
+      <c r="AS29" s="128">
         <f t="shared" si="14"/>
-        <v>1910.1555000000005</v>
-      </c>
-      <c r="AT29" s="149">
+        <v>1919.9215000000002</v>
+      </c>
+      <c r="AT29" s="128">
         <f t="shared" si="14"/>
-        <v>140.15549999999996</v>
-      </c>
-      <c r="AU29" s="150"/>
-      <c r="AV29" s="150"/>
+        <v>149.92149999999992</v>
+      </c>
+      <c r="AU29" s="129"/>
+      <c r="AV29" s="129"/>
     </row>
     <row r="30" spans="1:48" ht="15.75" thickBot="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35">
@@ -4646,8 +4634,8 @@
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="152"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="131"/>
       <c r="AD30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="33"/>
@@ -4659,12 +4647,12 @@
       <c r="AL30" s="33"/>
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
-      <c r="AO30" s="153"/>
+      <c r="AO30" s="132"/>
       <c r="AP30" s="33"/>
       <c r="AQ30" s="33"/>
       <c r="AR30" s="33"/>
       <c r="AS30" s="33"/>
-      <c r="AT30" s="154"/>
+      <c r="AT30" s="133"/>
     </row>
     <row r="31" spans="1:48" ht="15.75">
       <c r="A31" s="6"/>
@@ -4682,9 +4670,9 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="AR31" s="155"/>
-      <c r="AS31" s="155"/>
-      <c r="AT31" s="156"/>
+      <c r="AR31" s="134"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
       <c r="AU31" s="15"/>
     </row>
     <row r="32" spans="1:48" ht="15">
@@ -4698,8 +4686,8 @@
       <c r="J32" s="15"/>
       <c r="K32" s="6"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="157">
-        <v>193764</v>
+      <c r="M32" s="136">
+        <v>194764</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -4750,9 +4738,9 @@
       <c r="G34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="158">
+      <c r="M34" s="137">
         <f>M32+M33</f>
-        <v>225538</v>
+        <v>226538</v>
       </c>
       <c r="O34" s="66"/>
       <c r="P34" s="6"/>
@@ -4808,9 +4796,9 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="J36" s="15"/>
-      <c r="M36" s="158">
+      <c r="M36" s="137">
         <f>M34-M35</f>
-        <v>185858</v>
+        <v>186858</v>
       </c>
       <c r="O36" s="24"/>
       <c r="AR36" s="10"/>
@@ -4844,7 +4832,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="M38" s="4">
-        <v>40538</v>
+        <v>41538</v>
       </c>
       <c r="AR38" s="80">
         <f>SUM(AR32:AR37)</f>
@@ -5603,11 +5591,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:AT1"/>
     <mergeCell ref="A2:AT2"/>
     <mergeCell ref="A3:B3"/>
@@ -5616,13 +5599,19 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="AC4:AT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5630,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5649,92 +5638,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
     </row>
     <row r="4" spans="1:15" s="15" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="1:15" s="15" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="65"/>
@@ -6256,11 +6245,11 @@
       <c r="N27" s="93"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
       <c r="D28" s="75">
         <f t="shared" ref="D28:J28" si="0">SUM(D7:D27)</f>
         <v>0</v>
